--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori1/42/incorrect_predictions_42.xlsx
@@ -546,12 +546,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori1/42/incorrect_predictions_42.xlsx
@@ -546,12 +546,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Info: The target area is in an Altitude Zone</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
